--- a/input/MatrixEngineTemplate_LargeScenario_ParameterEvolution.xlsx
+++ b/input/MatrixEngineTemplate_LargeScenario_ParameterEvolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="460" windowWidth="26080" windowHeight="16060" tabRatio="500"/>
@@ -30,9 +30,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>Step Size</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>1000*Drugs</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -782,15 +782,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>43</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5">
         <v>0.1</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>0.4</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5">
         <v>0.33333000000000002</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>0.33333000000000002</v>
@@ -909,15 +909,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -926,7 +926,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -935,7 +935,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -943,13 +943,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1005,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1019,7 +1019,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -1029,10 +1029,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1085,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
